--- a/biology/Médecine/Klinikum_Worms/Klinikum_Worms.xlsx
+++ b/biology/Médecine/Klinikum_Worms/Klinikum_Worms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Klinikum Worms est un hôpital d’enseignement (universitaire) et est une dépendance de l’Université Johannes Gutenberg de Mayence. Actuellement il y a 555 lits pour 11 sections spécialisées ainsi que deux sections pour des médecins libres. Les 1 500 collaborateurs traitent 26 500 patients stationnaires et 36 000 patients ambulants. Le Klinikum Worms est parmi les 5 hôpitaux le plus grand en Rhénanie-Palatinat.
@@ -514,7 +526,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Klinikum est fondé en 1888 comme hôpital central de Worms (Stadtkrankenhaus Worms) qui était situé dans la Mainzer Straße. En 1981, il fut transféré dans des bâtiments tout neuf construit sur la colline de Worms-Herrnsheim tout près de ce village et de Worms-Hochheim.
 Depuis 2000, il a la forme juridique d’un Société à responsabilité limitée à but non lucratif; depuis le 1er janvier 2007 il porte le nom Klinikum Worms. En 2006, un bâtiment pour la radiothérapie était attaché et à partir de 2008/2009 un appareil de l'imagerie par résonance magnétique (de:MRT) y est installé; en 2012 suivent les centres Cathétérisme cardiaque et tomodensitométrie.
@@ -546,7 +560,9 @@
           <t>Services médicaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hôpital médical I (Cardiologie et Angiologie)
 Hôpital II (Gastroentérologie, Hépatologie, Diabétologie et Cancérologie
@@ -588,7 +604,9 @@
           <t>Direction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le Conseil d'administration de l'hôpital de Worms se compose comme suit:
 Friedrich Haas, PDG et directeur général
@@ -626,7 +644,9 @@
           <t>Photos</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 	Klinikum Worms
